--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -7,9 +7,9 @@
     <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="怪物表" sheetId="1" r:id="rId1"/>
+    <sheet name="Boss表" sheetId="3" r:id="rId2"/>
+    <sheet name="怪物AI" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,12 +28,85 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martian</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Martian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+怪物ID:60001-80000
+BossID:80001-89999
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martian</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Martian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+怪物ID:60001-89999
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>怪物ID</t>
   </si>
   <si>
+    <t>怪物名称</t>
+  </si>
+  <si>
+    <t>怪物描述</t>
+  </si>
+  <si>
     <t>怪物图</t>
   </si>
   <si>
@@ -43,67 +116,145 @@
     <t>基础生命值</t>
   </si>
   <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>韧性</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
     <t>AI逻辑类型</t>
   </si>
   <si>
-    <t>头部装备</t>
-  </si>
-  <si>
-    <t>身体装备</t>
-  </si>
-  <si>
-    <t>左腕装备</t>
-  </si>
-  <si>
-    <t>右腕装备</t>
-  </si>
-  <si>
-    <t>腿部装备</t>
+    <t>1稀有度权重</t>
+  </si>
+  <si>
+    <t>2稀有度权重</t>
+  </si>
+  <si>
+    <t>3稀有度权重</t>
+  </si>
+  <si>
+    <t>4稀有度权重</t>
+  </si>
+  <si>
+    <t>enemyId</t>
+  </si>
+  <si>
+    <t>enemyName</t>
+  </si>
+  <si>
+    <t>enemyDesc</t>
+  </si>
+  <si>
+    <t>enemyImg</t>
+  </si>
+  <si>
+    <t>enemyFloor</t>
+  </si>
+  <si>
+    <t>enemyHP</t>
+  </si>
+  <si>
+    <t>enemySTR</t>
+  </si>
+  <si>
+    <t>enemyCON</t>
+  </si>
+  <si>
+    <t>enemyAGI</t>
+  </si>
+  <si>
+    <t>enemyDEX</t>
+  </si>
+  <si>
+    <t>enemyAI</t>
+  </si>
+  <si>
+    <t>1Weight</t>
+  </si>
+  <si>
+    <t>2Weight</t>
+  </si>
+  <si>
+    <t>3Weight</t>
+  </si>
+  <si>
+    <t>4Weight</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>杂兵1</t>
+  </si>
+  <si>
+    <t>杂兵2</t>
+  </si>
+  <si>
+    <t>杂兵3</t>
+  </si>
+  <si>
+    <t>Boss1</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>身体</t>
+  </si>
+  <si>
+    <t>护腕</t>
+  </si>
+  <si>
+    <t>腿部</t>
   </si>
   <si>
     <t>武器</t>
   </si>
   <si>
-    <t>enemyId</t>
-  </si>
-  <si>
-    <t>enemyImg</t>
-  </si>
-  <si>
-    <t>enemyFloor</t>
-  </si>
-  <si>
-    <t>enemyHP</t>
-  </si>
-  <si>
-    <t>enemyAI</t>
-  </si>
-  <si>
-    <t>enemyHead</t>
-  </si>
-  <si>
-    <t>enemyBody</t>
-  </si>
-  <si>
-    <t>enemyLeft</t>
-  </si>
-  <si>
-    <t>enemyRight</t>
-  </si>
-  <si>
-    <t>enemyLeg</t>
-  </si>
-  <si>
-    <t>enemyWeapon</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>headAmror</t>
+  </si>
+  <si>
+    <t>bodyAmror</t>
+  </si>
+  <si>
+    <t>wristAmror</t>
+  </si>
+  <si>
+    <t>legAmror</t>
+  </si>
+  <si>
+    <t>weapon</t>
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>20007,20007</t>
+  </si>
+  <si>
+    <t>AI类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>aiType</t>
+  </si>
+  <si>
+    <t>小兵类型1</t>
+  </si>
+  <si>
+    <t>Boss类型1</t>
   </si>
 </sst>
 </file>
@@ -116,7 +267,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +431,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -753,8 +915,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +927,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1074,129 +1248,607 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="10.6416666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.7583333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.6916666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.6083333333333" customWidth="1"/>
-    <col min="5" max="6" width="12.825" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="12.6083333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.2833333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.3666666666667" customWidth="1"/>
-    <col min="11" max="11" width="14.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.7583333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.6916666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.6083333333333" customWidth="1"/>
+    <col min="7" max="11" width="12.825" customWidth="1"/>
+    <col min="12" max="12" width="13.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0416666666667" customWidth="1"/>
+    <col min="14" max="14" width="12.825" customWidth="1"/>
+    <col min="15" max="15" width="13.475" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" ht="16.5" spans="1:15">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="16.5" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>60001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>60002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>60003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>60004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>80001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>20005</v>
+      </c>
+      <c r="M4">
+        <v>20006</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4">
+        <v>2008</v>
+      </c>
+      <c r="P4">
+        <v>3001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="12.0583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1204,38 +1856,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="怪物表" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>怪物ID</t>
   </si>
@@ -143,7 +143,7 @@
     <t>4稀有度权重</t>
   </si>
   <si>
-    <t>enemyId</t>
+    <t>id</t>
   </si>
   <si>
     <t>enemyName</t>
@@ -242,13 +242,10 @@
     <t>20007,20007</t>
   </si>
   <si>
-    <t>AI类型</t>
+    <t>AI类型id</t>
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>aiType</t>
   </si>
   <si>
     <t>小兵类型1</t>
@@ -433,12 +430,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1253,7 +1250,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1577,10 +1574,10 @@
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1809,7 +1806,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1840,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1848,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="怪物表" sheetId="1" r:id="rId1"/>
@@ -176,16 +176,16 @@
     <t>enemyAI</t>
   </si>
   <si>
-    <t>1Weight</t>
-  </si>
-  <si>
-    <t>2Weight</t>
-  </si>
-  <si>
-    <t>3Weight</t>
-  </si>
-  <si>
-    <t>4Weight</t>
+    <t>Weight1</t>
+  </si>
+  <si>
+    <t>Weight2</t>
+  </si>
+  <si>
+    <t>Weight3</t>
+  </si>
+  <si>
+    <t>Weight4</t>
   </si>
   <si>
     <t>int</t>
@@ -430,12 +430,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1247,10 +1247,10 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1574,7 +1574,7 @@
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
@@ -1805,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="25500" windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="怪物表" sheetId="1" r:id="rId1"/>
-    <sheet name="Boss表" sheetId="3" r:id="rId2"/>
-    <sheet name="怪物AI" sheetId="2" r:id="rId3"/>
+    <sheet name="怪物AI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,41 +61,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Martian</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Martian:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-怪物ID:60001-89999
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>怪物ID</t>
   </si>
@@ -204,42 +170,6 @@
   </si>
   <si>
     <t>Boss1</t>
-  </si>
-  <si>
-    <t>头部</t>
-  </si>
-  <si>
-    <t>身体</t>
-  </si>
-  <si>
-    <t>护腕</t>
-  </si>
-  <si>
-    <t>腿部</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>headAmror</t>
-  </si>
-  <si>
-    <t>bodyAmror</t>
-  </si>
-  <si>
-    <t>wristAmror</t>
-  </si>
-  <si>
-    <t>legAmror</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>20007,20007</t>
   </si>
   <si>
     <t>AI类型id</t>
@@ -912,11 +842,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,15 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1269,143 +1187,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1572,241 +1490,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="13" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>80001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>20005</v>
-      </c>
-      <c r="M4">
-        <v>20006</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4">
-        <v>2008</v>
-      </c>
-      <c r="P4">
-        <v>3001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1816,10 +1503,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1837,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1845,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="怪物表" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>怪物ID</t>
   </si>
@@ -79,6 +79,9 @@
     <t>出现层数</t>
   </si>
   <si>
+    <t>金币</t>
+  </si>
+  <si>
     <t>基础生命值</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>enemyFloor</t>
   </si>
   <si>
+    <t>enemyCoin</t>
+  </si>
+  <si>
     <t>enemyHP</t>
   </si>
   <si>
@@ -160,16 +166,19 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>杂兵1</t>
   </si>
   <si>
+    <t>7,15</t>
+  </si>
+  <si>
     <t>杂兵2</t>
   </si>
   <si>
     <t>杂兵3</t>
-  </si>
-  <si>
-    <t>Boss1</t>
   </si>
   <si>
     <t>AI类型id</t>
@@ -1163,30 +1172,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.6416666666667" customWidth="1"/>
     <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="10.7583333333333" customWidth="1"/>
     <col min="5" max="5" width="13.6916666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.6083333333333" customWidth="1"/>
-    <col min="7" max="11" width="12.825" customWidth="1"/>
-    <col min="12" max="12" width="13.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0416666666667" customWidth="1"/>
-    <col min="14" max="14" width="12.825" customWidth="1"/>
-    <col min="15" max="15" width="13.475" customWidth="1"/>
+    <col min="6" max="7" width="12.6083333333333" customWidth="1"/>
+    <col min="8" max="12" width="12.825" customWidth="1"/>
+    <col min="13" max="13" width="13.5833333333333" customWidth="1"/>
+    <col min="14" max="14" width="13.0416666666667" customWidth="1"/>
+    <col min="15" max="15" width="12.825" customWidth="1"/>
+    <col min="16" max="16" width="13.475" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:15">
+    <row r="1" ht="15" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,116 +1241,125 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:15">
+    <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:15">
+    <row r="3" ht="16.5" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>60001</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
         <v>30</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1353,129 +1371,109 @@
         <v>10</v>
       </c>
       <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>60002</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
       </c>
       <c r="J5">
         <v>25</v>
       </c>
       <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>60003</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>60004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
@@ -1492,7 +1490,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1503,20 +1501,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1524,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1532,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BooomProject\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A2F17-C647-4813-A399-B7DCBAAD308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="怪物表" sheetId="1" r:id="rId1"/>
     <sheet name="怪物AI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>怪物ID</t>
   </si>
@@ -187,23 +180,95 @@
     <t>描述</t>
   </si>
   <si>
-    <t>小兵类型1</t>
-  </si>
-  <si>
-    <t>Boss类型1</t>
+    <t>杂兵4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激进型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂兵10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,150 +290,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -379,8 +300,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,198 +331,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -603,255 +359,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,62 +375,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,36 +642,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F3"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.7583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.6916666666667" customWidth="1"/>
-    <col min="6" max="7" width="12.6083333333333" customWidth="1"/>
-    <col min="8" max="12" width="12.825" customWidth="1"/>
-    <col min="13" max="13" width="13.5833333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.0416666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.825" customWidth="1"/>
-    <col min="16" max="16" width="13.475" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:16">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:16">
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1295,7 +770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:16">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1345,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>60001</v>
       </c>
@@ -1355,8 +830,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -1389,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>60002</v>
       </c>
@@ -1399,11 +874,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -1418,7 +893,7 @@
         <v>25</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -1433,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>60003</v>
       </c>
@@ -1462,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1477,29 +952,432 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>60004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f t="shared" ref="A8:A9" si="0">A7+1</f>
+        <v>60005</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>60006</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>60006</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f>A9+1</f>
+        <v>60007</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>60008</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>60009</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" ref="A14:A15" si="1">A13+1</f>
+        <v>60010</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>60011</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.0583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1507,35 +1385,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Configs/Enemy.xlsx
+++ b/Configs/Enemy.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BooomProject\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A2F17-C647-4813-A399-B7DCBAAD308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="怪物表" sheetId="1" r:id="rId1"/>
     <sheet name="怪物AI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,13 +172,64 @@
     <t>杂兵1</t>
   </si>
   <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>杂兵2</t>
+  </si>
+  <si>
+    <t>10,18</t>
+  </si>
+  <si>
+    <t>杂兵3</t>
+  </si>
+  <si>
     <t>7,15</t>
   </si>
   <si>
-    <t>杂兵2</t>
-  </si>
-  <si>
-    <t>杂兵3</t>
+    <t>杂兵4</t>
+  </si>
+  <si>
+    <t>10,20</t>
+  </si>
+  <si>
+    <t>杂兵5</t>
+  </si>
+  <si>
+    <t>15,25</t>
+  </si>
+  <si>
+    <t>杂兵6</t>
+  </si>
+  <si>
+    <t>精英1</t>
+  </si>
+  <si>
+    <t>15,30</t>
+  </si>
+  <si>
+    <t>杂兵8</t>
+  </si>
+  <si>
+    <t>杂兵9</t>
+  </si>
+  <si>
+    <t>20,35</t>
+  </si>
+  <si>
+    <t>杂兵10</t>
+  </si>
+  <si>
+    <t>17,30</t>
+  </si>
+  <si>
+    <t>精英2</t>
+  </si>
+  <si>
+    <t>25,40</t>
+  </si>
+  <si>
+    <t>精英3</t>
   </si>
   <si>
     <t>AI类型id</t>
@@ -180,95 +238,36 @@
     <t>描述</t>
   </si>
   <si>
-    <t>杂兵4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>常规型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>均衡型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>激进型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>破坏型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂兵10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +289,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -300,29 +443,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +453,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -359,9 +667,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -369,30 +919,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -642,20 +1236,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -670,157 +1265,157 @@
     <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="16.5" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="16.5" spans="1:16">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>60001</v>
       </c>
@@ -830,8 +1425,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -864,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>60002</v>
       </c>
@@ -874,8 +1469,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -908,18 +1503,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>60003</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>50</v>
@@ -952,19 +1547,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7">
-        <f>A6+1</f>
         <v>60004</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G7">
         <v>40</v>
@@ -997,19 +1591,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8">
-        <f t="shared" ref="A8:A9" si="0">A7+1</f>
         <v>60005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -1042,19 +1635,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>60006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G9">
         <v>65</v>
@@ -1087,18 +1679,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
-        <v>60006</v>
+        <v>60007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G10">
         <v>35</v>
@@ -1131,19 +1723,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11">
-        <f>A9+1</f>
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -1176,19 +1767,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12">
-        <f>A11+1</f>
-        <v>60008</v>
+        <v>60009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>53</v>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G12">
         <v>35</v>
@@ -1221,19 +1811,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13">
-        <f>A12+1</f>
-        <v>60009</v>
+        <v>60010</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G13">
         <v>75</v>
@@ -1266,19 +1855,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14">
-        <f t="shared" ref="A14:A15" si="1">A13+1</f>
-        <v>60010</v>
+        <v>60011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G14">
         <v>80</v>
@@ -1311,19 +1899,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15">
-        <f t="shared" si="1"/>
-        <v>60011</v>
+        <v>60012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -1357,79 +1944,80 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>